--- a/homework/100325/21.xlsx
+++ b/homework/100325/21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrHir\PycharmProjects\ege_info_tutor\homework\100325\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACAA9C3-2C3F-4D82-A258-A86FEED12EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A82F17A-B037-4430-89AC-72E44D51EE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CF9F464-3206-461F-98B0-C1795E2DDBCA}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,60 +1234,60 @@
         <v>2222</v>
       </c>
       <c r="B19" s="1">
-        <f>MAX(B20-B1,A19-B1)</f>
+        <f t="shared" ref="B19:O21" si="1">MAX(B20-B1,A19-B1)</f>
         <v>2250</v>
       </c>
       <c r="C19" s="1">
-        <f>MAX(C20-C1,B19-C1)</f>
-        <v>2800</v>
+        <f t="shared" si="1"/>
+        <v>2451</v>
       </c>
       <c r="D19" s="1">
-        <f>MAX(D20-D1,C19-D1)</f>
-        <v>2852</v>
+        <f t="shared" si="1"/>
+        <v>2503</v>
       </c>
       <c r="E19" s="1">
-        <f>MAX(E20-E1,D19-E1)</f>
-        <v>2778</v>
+        <f t="shared" si="1"/>
+        <v>2429</v>
       </c>
       <c r="F19" s="1">
-        <f>MAX(F20-F1,E19-F1)</f>
-        <v>2720</v>
+        <f t="shared" si="1"/>
+        <v>2371</v>
       </c>
       <c r="G19" s="1">
-        <f>MAX(G20-G1,F19-G1)</f>
-        <v>2713</v>
+        <f t="shared" si="1"/>
+        <v>2364</v>
       </c>
       <c r="H19" s="1">
-        <f>MAX(H20-H1,G19-H1)</f>
-        <v>2689</v>
+        <f t="shared" si="1"/>
+        <v>2340</v>
       </c>
       <c r="I19" s="1">
-        <f>MAX(I20-I1,H19-I1)</f>
-        <v>2604</v>
+        <f t="shared" si="1"/>
+        <v>2255</v>
       </c>
       <c r="J19" s="1">
-        <f>MAX(J20-J1,I19-J1)</f>
-        <v>2630</v>
+        <f t="shared" si="1"/>
+        <v>2281</v>
       </c>
       <c r="K19" s="1">
-        <f>MAX(K20-K1,J19-K1)</f>
-        <v>2618</v>
+        <f t="shared" si="1"/>
+        <v>2269</v>
       </c>
       <c r="L19" s="1">
-        <f>MAX(L20-L1,K19-L1)</f>
-        <v>2549</v>
+        <f t="shared" si="1"/>
+        <v>2200</v>
       </c>
       <c r="M19" s="1">
-        <f>MAX(M20-M1,L19-M1)</f>
-        <v>2727</v>
+        <f t="shared" si="1"/>
+        <v>2193</v>
       </c>
       <c r="N19" s="1">
-        <f>MAX(N20-N1,M19-N1)</f>
-        <v>2733</v>
+        <f t="shared" si="1"/>
+        <v>2199</v>
       </c>
       <c r="O19" s="1">
-        <f>MAX(O20-O1,N19-O1)</f>
-        <v>2735</v>
+        <f t="shared" si="1"/>
+        <v>2201</v>
       </c>
       <c r="S19" t="s">
         <v>0</v>
@@ -1299,60 +1299,60 @@
         <v>2260</v>
       </c>
       <c r="B20" s="1">
-        <f>MAX(B21-B2,A20-B2)</f>
+        <f t="shared" si="1"/>
         <v>2315</v>
       </c>
       <c r="C20" s="1">
-        <f>MAX(C21-C2,B20-C2)</f>
-        <v>2876</v>
+        <f t="shared" si="1"/>
+        <v>2527</v>
       </c>
       <c r="D20" s="1">
-        <f>MAX(D21-D2,C20-D2)</f>
-        <v>2860</v>
+        <f t="shared" si="1"/>
+        <v>2511</v>
       </c>
       <c r="E20" s="1">
-        <f>MAX(E21-E2,D20-E2)</f>
-        <v>2836</v>
+        <f t="shared" si="1"/>
+        <v>2487</v>
       </c>
       <c r="F20" s="1">
-        <f>MAX(F21-F2,E20-F2)</f>
-        <v>2797</v>
+        <f t="shared" si="1"/>
+        <v>2448</v>
       </c>
       <c r="G20" s="1">
-        <f>MAX(G21-G2,F20-G2)</f>
-        <v>2720</v>
+        <f t="shared" si="1"/>
+        <v>2371</v>
       </c>
       <c r="H20" s="1">
-        <f>MAX(H21-H2,G20-H2)</f>
-        <v>2713</v>
+        <f t="shared" si="1"/>
+        <v>2364</v>
       </c>
       <c r="I20" s="1">
-        <f>MAX(I21-I2,H20-I2)</f>
-        <v>2698</v>
+        <f t="shared" si="1"/>
+        <v>2349</v>
       </c>
       <c r="J20" s="1">
-        <f>MAX(J21-J2,I20-J2)</f>
-        <v>2664</v>
+        <f t="shared" si="1"/>
+        <v>2315</v>
       </c>
       <c r="K20" s="1">
-        <f>MAX(K21-K2,J20-K2)</f>
-        <v>2619</v>
+        <f t="shared" si="1"/>
+        <v>2270</v>
       </c>
       <c r="L20" s="1">
-        <f>MAX(L21-L2,K20-L2)</f>
-        <v>2536</v>
+        <f t="shared" si="1"/>
+        <v>2233</v>
       </c>
       <c r="M20" s="1">
-        <f>MAX(M21-M2,L20-M2)</f>
-        <v>2824</v>
+        <f t="shared" si="1"/>
+        <v>2290</v>
       </c>
       <c r="N20" s="1">
-        <f>MAX(N21-N2,M20-N2)</f>
-        <v>2766</v>
+        <f t="shared" si="1"/>
+        <v>2232</v>
       </c>
       <c r="O20" s="1">
-        <f>MAX(O21-O2,N20-O2)</f>
-        <v>2762</v>
+        <f t="shared" si="1"/>
+        <v>2228</v>
       </c>
       <c r="S20" t="s">
         <v>1</v>
@@ -1364,60 +1364,60 @@
         <v>2328</v>
       </c>
       <c r="B21" s="1">
-        <f>MAX(B22-B3,A21-B3)</f>
+        <f t="shared" si="1"/>
         <v>2408</v>
       </c>
       <c r="C21" s="1">
-        <f>MAX(C22-C3,B21-C3)</f>
-        <v>2894</v>
+        <f t="shared" si="1"/>
+        <v>2545</v>
       </c>
       <c r="D21" s="1">
-        <f>MAX(D22-D3,C21-D3)</f>
-        <v>2862</v>
+        <f t="shared" si="1"/>
+        <v>2513</v>
       </c>
       <c r="E21" s="1">
-        <f>MAX(E22-E3,D21-E3)</f>
-        <v>2829</v>
+        <f t="shared" si="1"/>
+        <v>2480</v>
       </c>
       <c r="F21" s="1">
-        <f>MAX(F22-F3,E21-F3)</f>
-        <v>2808</v>
+        <f t="shared" si="1"/>
+        <v>2459</v>
       </c>
       <c r="G21" s="1">
-        <f>MAX(G22-G3,F21-G3)</f>
-        <v>2712</v>
+        <f t="shared" si="1"/>
+        <v>2363</v>
       </c>
       <c r="H21" s="1">
-        <f>MAX(H22-H3,G21-H3)</f>
-        <v>2706</v>
+        <f t="shared" si="1"/>
+        <v>2357</v>
       </c>
       <c r="I21" s="1">
-        <f>MAX(I22-I3,H21-I3)</f>
-        <v>2696</v>
+        <f t="shared" si="1"/>
+        <v>2347</v>
       </c>
       <c r="J21" s="1">
-        <f>MAX(J22-J3,I21-J3)</f>
-        <v>2605</v>
+        <f t="shared" si="1"/>
+        <v>2256</v>
       </c>
       <c r="K21" s="1">
-        <f>MAX(K22-K3,J21-K3)</f>
-        <v>2545</v>
+        <f t="shared" si="1"/>
+        <v>2220</v>
       </c>
       <c r="L21" s="1">
-        <f>MAX(L22-L3,K21-L3)</f>
-        <v>2526</v>
+        <f t="shared" si="1"/>
+        <v>2316</v>
       </c>
       <c r="M21" s="1">
-        <f>MAX(M22-M3,L21-M3)</f>
-        <v>2857</v>
+        <f t="shared" si="1"/>
+        <v>2323</v>
       </c>
       <c r="N21" s="1">
-        <f>MAX(N22-N3,M21-N3)</f>
-        <v>2855</v>
+        <f t="shared" si="1"/>
+        <v>2321</v>
       </c>
       <c r="O21" s="1">
-        <f>MAX(O22-O3,N21-O3)</f>
-        <v>2798</v>
+        <f t="shared" si="1"/>
+        <v>2264</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1426,60 +1426,60 @@
         <v>2406</v>
       </c>
       <c r="B22" s="1">
-        <f>MAX(B23-B4,A22-B4)</f>
+        <f t="shared" ref="B22:B32" si="2">MAX(B23-B4,A22-B4)</f>
         <v>2443</v>
       </c>
       <c r="C22" s="10">
-        <f>MAX(B32+B13,A31+B13)</f>
-        <v>2900</v>
+        <f>MAX(C23+C4,B22+C4)</f>
+        <v>2551</v>
       </c>
       <c r="D22" s="1">
-        <f>MAX(D23-D4,C22-D4)</f>
-        <v>2838</v>
+        <f t="shared" ref="D22:L22" si="3">MAX(D23-D4,C22-D4)</f>
+        <v>2489</v>
       </c>
       <c r="E22" s="1">
-        <f>MAX(E23-E4,D22-E4)</f>
-        <v>2829</v>
+        <f t="shared" si="3"/>
+        <v>2480</v>
       </c>
       <c r="F22" s="1">
-        <f>MAX(F23-F4,E22-F4)</f>
-        <v>2804</v>
+        <f t="shared" si="3"/>
+        <v>2455</v>
       </c>
       <c r="G22" s="1">
-        <f>MAX(G23-G4,F22-G4)</f>
-        <v>2739</v>
+        <f t="shared" si="3"/>
+        <v>2396</v>
       </c>
       <c r="H22" s="1">
-        <f>MAX(H23-H4,G22-H4)</f>
-        <v>2672</v>
+        <f t="shared" si="3"/>
+        <v>2361</v>
       </c>
       <c r="I22" s="1">
-        <f>MAX(I23-I4,H22-I4)</f>
-        <v>2577</v>
+        <f t="shared" si="3"/>
+        <v>2266</v>
       </c>
       <c r="J22" s="1">
-        <f>MAX(J23-J4,I22-J4)</f>
-        <v>2525</v>
+        <f t="shared" si="3"/>
+        <v>2341</v>
       </c>
       <c r="K22" s="1">
-        <f>MAX(K23-K4,J22-K4)</f>
-        <v>2464</v>
+        <f t="shared" si="3"/>
+        <v>2280</v>
       </c>
       <c r="L22" s="1">
-        <f>MAX(L23-L4,K22-L4)</f>
-        <v>2461</v>
+        <f t="shared" si="3"/>
+        <v>2335</v>
       </c>
       <c r="M22" s="10">
-        <f>MAX(B32+B13,A31+B13)</f>
-        <v>2900</v>
+        <f>MAX(M23+M4,L22+M4)</f>
+        <v>2366</v>
       </c>
       <c r="N22" s="1">
-        <f>MAX(N23-N4,M22-N4)</f>
-        <v>2877</v>
+        <f t="shared" ref="N22:N32" si="4">MAX(N23-N4,M22-N4)</f>
+        <v>2343</v>
       </c>
       <c r="O22" s="1">
-        <f>MAX(O23-O4,N22-O4)</f>
-        <v>2842</v>
+        <f t="shared" ref="O22:O32" si="5">MAX(O23-O4,N22-O4)</f>
+        <v>2308</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1488,15 +1488,15 @@
         <v>2468</v>
       </c>
       <c r="B23" s="1">
-        <f>MAX(B24-B5,A23-B5)</f>
+        <f t="shared" si="2"/>
         <v>2479</v>
       </c>
       <c r="C23" s="1">
-        <f>MAX(C24-C5,B23-C5)</f>
+        <f t="shared" ref="C23:D30" si="6">MAX(C24-C5,B23-C5)</f>
         <v>2483</v>
       </c>
       <c r="D23" s="1">
-        <f>MAX(D24-D5,C23-D5)</f>
+        <f t="shared" si="6"/>
         <v>2517</v>
       </c>
       <c r="E23" s="1">
@@ -1509,39 +1509,39 @@
       </c>
       <c r="G23" s="1">
         <f>MAX(G24-G5,F23-G5)</f>
-        <v>2468</v>
+        <v>2461</v>
       </c>
       <c r="H23" s="1">
         <f>MAX(H24-H5,G23-H5)</f>
-        <v>2435</v>
+        <v>2428</v>
       </c>
       <c r="I23" s="1">
         <f>MAX(I24-I5,H23-I5)</f>
-        <v>2357</v>
+        <v>2350</v>
       </c>
       <c r="J23" s="1">
         <f>MAX(J24-J5,I23-J5)</f>
-        <v>2401</v>
+        <v>2393</v>
       </c>
       <c r="K23" s="1">
         <f>MAX(J23-K5)</f>
-        <v>2334</v>
+        <v>2326</v>
       </c>
       <c r="L23" s="1">
         <f>MAX(L24-L5,K23-L5)</f>
-        <v>2346</v>
+        <v>2338</v>
       </c>
       <c r="M23" s="1">
         <f>MAX(M24-M5,L23-M5)</f>
-        <v>2331</v>
+        <v>2239</v>
       </c>
       <c r="N23" s="1">
-        <f>MAX(N24-N5,M23-N5)</f>
-        <v>2460</v>
+        <f t="shared" si="4"/>
+        <v>2203</v>
       </c>
       <c r="O23" s="1">
-        <f>MAX(O24-O5,N23-O5)</f>
-        <v>2567</v>
+        <f t="shared" si="5"/>
+        <v>2219</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1550,54 +1550,54 @@
         <v>2519</v>
       </c>
       <c r="B24" s="1">
-        <f>MAX(B25-B6,A24-B6)</f>
+        <f t="shared" si="2"/>
         <v>2540</v>
       </c>
       <c r="C24" s="1">
-        <f>MAX(C25-C6,B24-C6)</f>
+        <f t="shared" si="6"/>
         <v>2517</v>
       </c>
       <c r="D24" s="1">
-        <f>MAX(D25-D6,C24-D6)</f>
+        <f t="shared" si="6"/>
         <v>2521</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="1">
         <f>MAX(F25-F6)</f>
-        <v>2450</v>
+        <v>2443</v>
       </c>
       <c r="G24" s="1">
-        <f>MAX(G25-G6,F24-G6)</f>
-        <v>2483</v>
+        <f t="shared" ref="G24:G32" si="7">MAX(G25-G6,F24-G6)</f>
+        <v>2476</v>
       </c>
       <c r="H24" s="1">
-        <f>MAX(H25-H6,G24-H6)</f>
-        <v>2419</v>
+        <f t="shared" ref="H24:H32" si="8">MAX(H25-H6,G24-H6)</f>
+        <v>2412</v>
       </c>
       <c r="I24" s="1">
-        <f>MAX(I25-I6,H24-I6)</f>
-        <v>2417</v>
+        <f t="shared" ref="I24:I32" si="9">MAX(I25-I6,H24-I6)</f>
+        <v>2410</v>
       </c>
       <c r="J24" s="1">
-        <f>MAX(J25-J6,I24-J6)</f>
-        <v>2436</v>
+        <f t="shared" ref="J24:J32" si="10">MAX(J25-J6,I24-J6)</f>
+        <v>2428</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="1">
         <f>MAX(L25-L6)</f>
-        <v>2398</v>
+        <v>2390</v>
       </c>
       <c r="M24" s="1">
-        <f>MAX(M25-M6,L24-M6)</f>
-        <v>2430</v>
+        <f t="shared" ref="M24:M30" si="11">MAX(M25-M6,L24-M6)</f>
+        <v>2304</v>
       </c>
       <c r="N24" s="1">
-        <f>MAX(N25-N6,M24-N6)</f>
-        <v>2547</v>
+        <f t="shared" si="4"/>
+        <v>2290</v>
       </c>
       <c r="O24" s="1">
-        <f>MAX(O25-O6,N24-O6)</f>
-        <v>2613</v>
+        <f t="shared" si="5"/>
+        <v>2265</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -1606,60 +1606,60 @@
         <v>2533</v>
       </c>
       <c r="B25" s="1">
-        <f>MAX(B26-B7,A25-B7)</f>
+        <f t="shared" si="2"/>
         <v>2628</v>
       </c>
       <c r="C25" s="1">
-        <f>MAX(C26-C7,B25-C7)</f>
+        <f t="shared" si="6"/>
         <v>2569</v>
       </c>
       <c r="D25" s="1">
-        <f>MAX(D26-D7,C25-D7)</f>
+        <f t="shared" si="6"/>
         <v>2523</v>
       </c>
       <c r="E25" s="1">
-        <f>MAX(E26-E7,D25-E7)</f>
+        <f t="shared" ref="E25:F27" si="12">MAX(E26-E7,D25-E7)</f>
         <v>2438</v>
       </c>
       <c r="F25" s="1">
-        <f>MAX(F26-F7,E25-F7)</f>
-        <v>2521</v>
+        <f t="shared" si="12"/>
+        <v>2514</v>
       </c>
       <c r="G25" s="1">
-        <f>MAX(G26-G7,F25-G7)</f>
-        <v>2547</v>
+        <f t="shared" si="7"/>
+        <v>2540</v>
       </c>
       <c r="H25" s="1">
-        <f>MAX(H26-H7,G25-H7)</f>
-        <v>2497</v>
+        <f t="shared" si="8"/>
+        <v>2490</v>
       </c>
       <c r="I25" s="1">
-        <f>MAX(I26-I7,H25-I7)</f>
-        <v>2462</v>
+        <f t="shared" si="9"/>
+        <v>2455</v>
       </c>
       <c r="J25" s="1">
-        <f>MAX(J26-J7,I25-J7)</f>
-        <v>2463</v>
+        <f t="shared" si="10"/>
+        <v>2455</v>
       </c>
       <c r="K25" s="1">
-        <f>MAX(K26-K7,J25-K7)</f>
-        <v>2435</v>
+        <f t="shared" ref="K25:L27" si="13">MAX(K26-K7,J25-K7)</f>
+        <v>2427</v>
       </c>
       <c r="L25" s="1">
-        <f>MAX(L26-L7,K25-L7)</f>
-        <v>2406</v>
+        <f t="shared" si="13"/>
+        <v>2398</v>
       </c>
       <c r="M25" s="1">
-        <f>MAX(M26-M7,L25-M7)</f>
-        <v>2516</v>
+        <f t="shared" si="11"/>
+        <v>2382</v>
       </c>
       <c r="N25" s="1">
-        <f>MAX(N26-N7,M25-N7)</f>
-        <v>2577</v>
+        <f t="shared" si="4"/>
+        <v>2320</v>
       </c>
       <c r="O25" s="1">
-        <f>MAX(O26-O7,N25-O7)</f>
-        <v>2660</v>
+        <f t="shared" si="5"/>
+        <v>2312</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -1668,60 +1668,60 @@
         <v>2621</v>
       </c>
       <c r="B26" s="1">
-        <f>MAX(B27-B8,A26-B8)</f>
+        <f t="shared" si="2"/>
         <v>2709</v>
       </c>
       <c r="C26" s="1">
-        <f>MAX(C27-C8,B26-C8)</f>
-        <v>2628</v>
+        <f t="shared" si="6"/>
+        <v>2627</v>
       </c>
       <c r="D26" s="1">
-        <f>MAX(D27-D8,C26-D8)</f>
-        <v>2563</v>
+        <f t="shared" si="6"/>
+        <v>2559</v>
       </c>
       <c r="E26" s="1">
-        <f>MAX(E27-E8,D26-E8)</f>
-        <v>2509</v>
+        <f t="shared" si="12"/>
+        <v>2502</v>
       </c>
       <c r="F26" s="1">
-        <f>MAX(F27-F8,E26-F8)</f>
-        <v>2595</v>
+        <f t="shared" si="12"/>
+        <v>2588</v>
       </c>
       <c r="G26" s="1">
-        <f>MAX(G27-G8,F26-G8)</f>
-        <v>2591</v>
+        <f t="shared" si="7"/>
+        <v>2584</v>
       </c>
       <c r="H26" s="1">
-        <f>MAX(H27-H8,G26-H8)</f>
-        <v>2539</v>
+        <f t="shared" si="8"/>
+        <v>2532</v>
       </c>
       <c r="I26" s="1">
-        <f>MAX(I27-I8,H26-I8)</f>
-        <v>2453</v>
+        <f t="shared" si="9"/>
+        <v>2446</v>
       </c>
       <c r="J26" s="1">
-        <f>MAX(J27-J8,I26-J8)</f>
-        <v>2516</v>
+        <f t="shared" si="10"/>
+        <v>2508</v>
       </c>
       <c r="K26" s="1">
-        <f>MAX(K27-K8,J26-K8)</f>
-        <v>2512</v>
+        <f t="shared" si="13"/>
+        <v>2504</v>
       </c>
       <c r="L26" s="1">
-        <f>MAX(L27-L8,K26-L8)</f>
-        <v>2469</v>
+        <f t="shared" si="13"/>
+        <v>2461</v>
       </c>
       <c r="M26" s="1">
-        <f>MAX(M27-M8,L26-M8)</f>
-        <v>2562</v>
+        <f t="shared" si="11"/>
+        <v>2428</v>
       </c>
       <c r="N26" s="1">
-        <f>MAX(N27-N8,M26-N8)</f>
-        <v>2639</v>
+        <f t="shared" si="4"/>
+        <v>2345</v>
       </c>
       <c r="O26" s="1">
-        <f>MAX(O27-O8,N26-O8)</f>
-        <v>2686</v>
+        <f t="shared" si="5"/>
+        <v>2338</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1730,60 +1730,60 @@
         <v>2703</v>
       </c>
       <c r="B27" s="1">
-        <f>MAX(B28-B9,A27-B9)</f>
+        <f t="shared" si="2"/>
         <v>2734</v>
       </c>
       <c r="C27" s="1">
-        <f>MAX(C28-C9,B27-C9)</f>
-        <v>2710</v>
+        <f t="shared" si="6"/>
+        <v>2703</v>
       </c>
       <c r="D27" s="1">
-        <f>MAX(D28-D9,C27-D9)</f>
-        <v>2631</v>
+        <f t="shared" si="6"/>
+        <v>2624</v>
       </c>
       <c r="E27" s="1">
-        <f>MAX(E28-E9,D27-E9)</f>
-        <v>2603</v>
+        <f t="shared" si="12"/>
+        <v>2596</v>
       </c>
       <c r="F27" s="1">
-        <f>MAX(F28-F9,E27-F9)</f>
-        <v>2599</v>
+        <f t="shared" si="12"/>
+        <v>2592</v>
       </c>
       <c r="G27" s="1">
-        <f>MAX(G28-G9,F27-G9)</f>
-        <v>2528</v>
+        <f t="shared" si="7"/>
+        <v>2521</v>
       </c>
       <c r="H27" s="1">
-        <f>MAX(H28-H9,G27-H9)</f>
-        <v>2503</v>
+        <f t="shared" si="8"/>
+        <v>2496</v>
       </c>
       <c r="I27" s="1">
-        <f>MAX(I28-I9,H27-I9)</f>
-        <v>2426</v>
+        <f t="shared" si="9"/>
+        <v>2419</v>
       </c>
       <c r="J27" s="1">
-        <f>MAX(J28-J9,I27-J9)</f>
-        <v>2562</v>
+        <f t="shared" si="10"/>
+        <v>2554</v>
       </c>
       <c r="K27" s="1">
-        <f>MAX(K28-K9,J27-K9)</f>
-        <v>2533</v>
+        <f t="shared" si="13"/>
+        <v>2525</v>
       </c>
       <c r="L27" s="1">
-        <f>MAX(L28-L9,K27-L9)</f>
-        <v>2446</v>
+        <f t="shared" si="13"/>
+        <v>2438</v>
       </c>
       <c r="M27" s="1">
-        <f>MAX(M28-M9,L27-M9)</f>
-        <v>2595</v>
+        <f t="shared" si="11"/>
+        <v>2351</v>
       </c>
       <c r="N27" s="1">
-        <f>MAX(N28-N9,M27-N9)</f>
-        <v>2722</v>
+        <f t="shared" si="4"/>
+        <v>2374</v>
       </c>
       <c r="O27" s="1">
-        <f>MAX(O28-O9,N27-O9)</f>
-        <v>2715</v>
+        <f t="shared" si="5"/>
+        <v>2367</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1792,60 +1792,60 @@
         <v>2705</v>
       </c>
       <c r="B28" s="1">
-        <f>MAX(B29-B10,A28-B10)</f>
+        <f t="shared" si="2"/>
         <v>2760</v>
       </c>
       <c r="C28" s="1">
-        <f>MAX(C29-C10,B28-C10)</f>
-        <v>2747</v>
+        <f t="shared" si="6"/>
+        <v>2740</v>
       </c>
       <c r="D28" s="1">
-        <f>MAX(D29-D10,C28-D10)</f>
-        <v>2673</v>
+        <f t="shared" si="6"/>
+        <v>2666</v>
       </c>
       <c r="E28" s="1">
         <f>MAX(D28-E10)</f>
-        <v>2665</v>
+        <v>2658</v>
       </c>
       <c r="F28" s="1">
         <f>MAX(F29-F10,E28-F10)</f>
-        <v>2633</v>
+        <v>2626</v>
       </c>
       <c r="G28" s="1">
-        <f>MAX(G29-G10,F28-G10)</f>
-        <v>2582</v>
+        <f t="shared" si="7"/>
+        <v>2575</v>
       </c>
       <c r="H28" s="1">
-        <f>MAX(H29-H10,G28-H10)</f>
-        <v>2548</v>
+        <f t="shared" si="8"/>
+        <v>2541</v>
       </c>
       <c r="I28" s="1">
-        <f>MAX(I29-I10,H28-I10)</f>
-        <v>2490</v>
+        <f t="shared" si="9"/>
+        <v>2483</v>
       </c>
       <c r="J28" s="1">
-        <f>MAX(J29-J10,I28-J10)</f>
-        <v>2572</v>
+        <f t="shared" si="10"/>
+        <v>2564</v>
       </c>
       <c r="K28" s="1">
         <f>MAX(J28-K10)</f>
-        <v>2477</v>
+        <v>2469</v>
       </c>
       <c r="L28" s="1">
         <f>MAX(L29-L10,K28-L10)</f>
-        <v>2463</v>
+        <v>2455</v>
       </c>
       <c r="M28" s="1">
-        <f>MAX(M29-M10,L28-M10)</f>
-        <v>2682</v>
+        <f t="shared" si="11"/>
+        <v>2390</v>
       </c>
       <c r="N28" s="1">
-        <f>MAX(N29-N10,M28-N10)</f>
-        <v>2727</v>
+        <f t="shared" si="4"/>
+        <v>2379</v>
       </c>
       <c r="O28" s="1">
-        <f>MAX(O29-O10,N28-O10)</f>
-        <v>2683</v>
+        <f t="shared" si="5"/>
+        <v>2335</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1854,54 +1854,54 @@
         <v>2733</v>
       </c>
       <c r="B29" s="1">
-        <f>MAX(B30-B11,A29-B11)</f>
+        <f t="shared" si="2"/>
         <v>2797</v>
       </c>
       <c r="C29" s="1">
-        <f>MAX(C30-C11,B29-C11)</f>
-        <v>2768</v>
+        <f t="shared" si="6"/>
+        <v>2761</v>
       </c>
       <c r="D29" s="1">
-        <f>MAX(D30-D11,C29-D11)</f>
-        <v>2675</v>
+        <f t="shared" si="6"/>
+        <v>2668</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="1">
         <f>MAX(F30-F11)</f>
-        <v>2604</v>
+        <v>2596</v>
       </c>
       <c r="G29" s="1">
-        <f>MAX(G30-G11,F29-G11)</f>
-        <v>2584</v>
+        <f t="shared" si="7"/>
+        <v>2576</v>
       </c>
       <c r="H29" s="1">
-        <f>MAX(H30-H11,G29-H11)</f>
-        <v>2576</v>
+        <f t="shared" si="8"/>
+        <v>2568</v>
       </c>
       <c r="I29" s="1">
-        <f>MAX(I30-I11,H29-I11)</f>
-        <v>2527</v>
+        <f t="shared" si="9"/>
+        <v>2519</v>
       </c>
       <c r="J29" s="1">
-        <f>MAX(J30-J11,I29-J11)</f>
-        <v>2574</v>
+        <f t="shared" si="10"/>
+        <v>2566</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="1">
         <f>MAX(L30-L11)</f>
-        <v>2488</v>
+        <v>2480</v>
       </c>
       <c r="M29" s="1">
-        <f>MAX(M30-M11,L29-M11)</f>
-        <v>2747</v>
+        <f t="shared" si="11"/>
+        <v>2416</v>
       </c>
       <c r="N29" s="1">
-        <f>MAX(N30-N11,M29-N11)</f>
-        <v>2738</v>
+        <f t="shared" si="4"/>
+        <v>2372</v>
       </c>
       <c r="O29" s="1">
-        <f>MAX(O30-O11,N29-O11)</f>
-        <v>2669</v>
+        <f t="shared" si="5"/>
+        <v>2303</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -1910,60 +1910,60 @@
         <v>2761</v>
       </c>
       <c r="B30" s="1">
-        <f>MAX(B31-B12,A30-B12)</f>
+        <f t="shared" si="2"/>
         <v>2815</v>
       </c>
       <c r="C30" s="1">
-        <f>MAX(C31-C12,B30-C12)</f>
-        <v>2804</v>
+        <f t="shared" si="6"/>
+        <v>2796</v>
       </c>
       <c r="D30" s="1">
-        <f>MAX(D31-D12,C30-D12)</f>
-        <v>2711</v>
+        <f t="shared" si="6"/>
+        <v>2703</v>
       </c>
       <c r="E30" s="1">
-        <f>MAX(E31-E12,D30-E12)</f>
-        <v>2713</v>
+        <f t="shared" ref="E30:F32" si="14">MAX(E31-E12,D30-E12)</f>
+        <v>2705</v>
       </c>
       <c r="F30" s="1">
-        <f>MAX(F31-F12,E30-F12)</f>
-        <v>2668</v>
+        <f t="shared" si="14"/>
+        <v>2660</v>
       </c>
       <c r="G30" s="1">
-        <f>MAX(G31-G12,F30-G12)</f>
-        <v>2646</v>
+        <f t="shared" si="7"/>
+        <v>2638</v>
       </c>
       <c r="H30" s="1">
-        <f>MAX(H31-H12,G30-H12)</f>
-        <v>2602</v>
+        <f t="shared" si="8"/>
+        <v>2594</v>
       </c>
       <c r="I30" s="1">
-        <f>MAX(I31-I12,H30-I12)</f>
-        <v>2596</v>
+        <f t="shared" si="9"/>
+        <v>2588</v>
       </c>
       <c r="J30" s="1">
-        <f>MAX(J31-J12,I30-J12)</f>
-        <v>2590</v>
+        <f t="shared" si="10"/>
+        <v>2582</v>
       </c>
       <c r="K30" s="1">
-        <f>MAX(K31-K12,J30-K12)</f>
-        <v>2512</v>
+        <f t="shared" ref="K30:L32" si="15">MAX(K31-K12,J30-K12)</f>
+        <v>2504</v>
       </c>
       <c r="L30" s="1">
-        <f>MAX(L31-L12,K30-L12)</f>
-        <v>2494</v>
+        <f t="shared" si="15"/>
+        <v>2486</v>
       </c>
       <c r="M30" s="1">
-        <f>MAX(M31-M12,L30-M12)</f>
-        <v>2811</v>
+        <f t="shared" si="11"/>
+        <v>2397</v>
       </c>
       <c r="N30" s="1">
-        <f>MAX(N31-N12,M30-N12)</f>
-        <v>2782</v>
+        <f t="shared" si="4"/>
+        <v>2318</v>
       </c>
       <c r="O30" s="1">
-        <f>MAX(O31-O12,N30-O12)</f>
-        <v>2710</v>
+        <f t="shared" si="5"/>
+        <v>2246</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -1972,60 +1972,60 @@
         <v>2790</v>
       </c>
       <c r="B31" s="1">
-        <f>MAX(B32-B13,A31-B13)</f>
+        <f t="shared" si="2"/>
         <v>2868</v>
       </c>
       <c r="C31" s="10">
-        <f>MAX(B32+B13,A31+B13)</f>
-        <v>2900</v>
+        <f>MAX(C32+C13,B31+C13)</f>
+        <v>2892</v>
       </c>
       <c r="D31" s="1">
         <f>MAX(D32-D13,C31-D13)</f>
-        <v>2804</v>
+        <v>2796</v>
       </c>
       <c r="E31" s="1">
-        <f>MAX(E32-E13,D31-E13)</f>
-        <v>2740</v>
+        <f t="shared" si="14"/>
+        <v>2732</v>
       </c>
       <c r="F31" s="1">
-        <f>MAX(F32-F13,E31-F13)</f>
-        <v>2713</v>
+        <f t="shared" si="14"/>
+        <v>2705</v>
       </c>
       <c r="G31" s="1">
-        <f>MAX(G32-G13,F31-G13)</f>
-        <v>2617</v>
+        <f t="shared" si="7"/>
+        <v>2609</v>
       </c>
       <c r="H31" s="1">
-        <f>MAX(H32-H13,G31-H13)</f>
-        <v>2563</v>
+        <f t="shared" si="8"/>
+        <v>2555</v>
       </c>
       <c r="I31" s="1">
-        <f>MAX(I32-I13,H31-I13)</f>
-        <v>2503</v>
+        <f t="shared" si="9"/>
+        <v>2495</v>
       </c>
       <c r="J31" s="1">
-        <f>MAX(J32-J13,I31-J13)</f>
-        <v>2488</v>
+        <f t="shared" si="10"/>
+        <v>2480</v>
       </c>
       <c r="K31" s="1">
-        <f>MAX(K32-K13,J31-K13)</f>
-        <v>2455</v>
+        <f t="shared" si="15"/>
+        <v>2447</v>
       </c>
       <c r="L31" s="1">
-        <f>MAX(L32-L13,K31-L13)</f>
+        <f t="shared" si="15"/>
         <v>2412</v>
       </c>
       <c r="M31" s="10">
-        <f>MAX(B32+B13,A31+B13)</f>
-        <v>2900</v>
+        <f>MAX(M32+M13,L31+M13)</f>
+        <v>2436</v>
       </c>
       <c r="N31" s="1">
-        <f>MAX(N32-N13,M31-N13)</f>
-        <v>2864</v>
+        <f t="shared" si="4"/>
+        <v>2400</v>
       </c>
       <c r="O31" s="1">
-        <f>MAX(O32-O13,N31-O13)</f>
-        <v>2784</v>
+        <f t="shared" si="5"/>
+        <v>2320</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>2887</v>
       </c>
       <c r="B32" s="1">
-        <f>MAX(B33-B14,A32-B14)</f>
+        <f t="shared" si="2"/>
         <v>2884</v>
       </c>
       <c r="C32" s="1">
@@ -2046,35 +2046,35 @@
         <v>2821</v>
       </c>
       <c r="E32" s="1">
-        <f>MAX(E33-E14,D32-E14)</f>
+        <f t="shared" si="14"/>
         <v>2765</v>
       </c>
       <c r="F32" s="1">
-        <f>MAX(F33-F14,E32-F14)</f>
+        <f t="shared" si="14"/>
         <v>2704</v>
       </c>
       <c r="G32" s="1">
-        <f>MAX(G33-G14,F32-G14)</f>
+        <f t="shared" si="7"/>
         <v>2614</v>
       </c>
       <c r="H32" s="1">
-        <f>MAX(H33-H14,G32-H14)</f>
+        <f t="shared" si="8"/>
         <v>2575</v>
       </c>
       <c r="I32" s="1">
-        <f>MAX(I33-I14,H32-I14)</f>
+        <f t="shared" si="9"/>
         <v>2478</v>
       </c>
       <c r="J32" s="1">
-        <f>MAX(J33-J14,I32-J14)</f>
+        <f t="shared" si="10"/>
         <v>2471</v>
       </c>
       <c r="K32" s="1">
-        <f>MAX(K33-K14,J32-K14)</f>
+        <f t="shared" si="15"/>
         <v>2457</v>
       </c>
       <c r="L32" s="1">
-        <f>MAX(L33-L14,K32-L14)</f>
+        <f t="shared" si="15"/>
         <v>2476</v>
       </c>
       <c r="M32" s="1">
@@ -2082,11 +2082,11 @@
         <v>2423</v>
       </c>
       <c r="N32" s="1">
-        <f>MAX(N33-N14,M32-N14)</f>
+        <f t="shared" si="4"/>
         <v>2355</v>
       </c>
       <c r="O32" s="1">
-        <f>MAX(O33-O14,N32-O14)</f>
+        <f t="shared" si="5"/>
         <v>2293</v>
       </c>
     </row>
@@ -2100,55 +2100,55 @@
         <v>2879</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" ref="C33:O33" si="1">B33-C15</f>
+        <f t="shared" ref="C33:O33" si="16">B33-C15</f>
         <v>2861</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2817</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2738</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2714</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2684</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2659</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2566</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2564</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2533</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2488</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2453</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2392</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>2320</v>
       </c>
     </row>
